--- a/doc/内部設計書/05_ファイル構成一覧表__Thrymr..xlsx
+++ b/doc/内部設計書/05_ファイル構成一覧表__Thrymr..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/tanaka-ryo-plusdojo2022_seplus2016_onmicrosoft_com/Documents/E-1共有ファイル/チーム作成物/03_内部設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{2D5A107C-E402-49FA-9027-A5C57B9445DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C90E447-42AF-43A5-B453-DEB456BA3861}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{2D5A107C-E402-49FA-9027-A5C57B9445DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49CD533D-9432-4FC6-A848-1B08F07C8057}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4815" windowWidth="28110" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="205">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -73,6 +73,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>編集状況</t>
+  </si>
+  <si>
     <t>jsp</t>
   </si>
   <si>
@@ -86,43 +89,47 @@
     <t>ユーザー登録画面</t>
   </si>
   <si>
+    <t>小嶋</t>
+  </si>
+  <si>
+    <t>regist_result.jsp</t>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+  </si>
+  <si>
     <t>樫森</t>
   </si>
   <si>
-    <t>regist_result.jsp</t>
-  </si>
-  <si>
-    <t>登録完了画面</t>
-  </si>
-  <si>
     <t>login.jsp</t>
   </si>
   <si>
     <t>ログイン画面</t>
   </si>
   <si>
-    <t>小嶋</t>
-  </si>
-  <si>
     <t>logout.jsp</t>
   </si>
   <si>
     <t>ログアウト画面</t>
   </si>
   <si>
+    <t>樫森</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>top.jsp</t>
   </si>
   <si>
     <t>トップ画面</t>
   </si>
   <si>
+    <t>mypage.jsp</t>
+  </si>
+  <si>
+    <t>マイページ画面</t>
+  </si>
+  <si>
     <t>田中</t>
-  </si>
-  <si>
-    <t>mypage.jsp</t>
-  </si>
-  <si>
-    <t>マイページ画面</t>
   </si>
   <si>
     <t>my_review_list.jsp</t>
@@ -351,7 +358,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>title</t>
+    <t>Title</t>
   </si>
   <si>
     <t>title1行分のデータを持つ、エンティティモデル</t>
@@ -362,14 +369,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorite_genre</t>
+    <t>Favorite_Genre</t>
   </si>
   <si>
     <t>favorite_genre1行分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorite_review</t>
+    <t>Favorite_Review</t>
   </si>
   <si>
     <t>favorite_review1行分のデータを持つ、エンティティモデル</t>
@@ -380,14 +387,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorite_reviewer</t>
+    <t>Favorite_Reviewer</t>
   </si>
   <si>
     <t>favorite_reviewer1行分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>genre</t>
+    <t>Genre</t>
   </si>
   <si>
     <t>genre1行分のデータを持つ、エンティティモデル</t>
@@ -398,7 +405,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review</t>
+    <t>Review</t>
   </si>
   <si>
     <t>review1行分のデータを持つ、エンティティモデル</t>
@@ -412,8 +419,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_image</t>
-    <phoneticPr fontId="1"/>
+    <t>Review_Image</t>
   </si>
   <si>
     <t>review_image1行分のデータを持つ、エンティティモデル</t>
@@ -447,8 +453,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>titleDao</t>
-    <phoneticPr fontId="1"/>
+    <t>TitleDao</t>
   </si>
   <si>
     <t>title関連のデータアクセス用Dao(称号)</t>
@@ -458,40 +463,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorite_genreDao</t>
-    <phoneticPr fontId="1"/>
+    <t>Favorite_GenreDao</t>
   </si>
   <si>
     <t>favorite_genr関連のデータアクセス用Dao</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorite_reviewDao</t>
-    <phoneticPr fontId="1"/>
+    <t>Favorite_ReviewDao</t>
   </si>
   <si>
     <t>favorite_review関連のデータアクセス用Dao</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorite_reviewerDao</t>
-    <phoneticPr fontId="1"/>
+    <t>Favorite_ReviewerDao</t>
   </si>
   <si>
     <t>favorite_reviewer関連のデータアクセス用Dao</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>genreDao</t>
-    <phoneticPr fontId="1"/>
+    <t>GenreDao</t>
   </si>
   <si>
     <t>genre関連のデータアクセス用Dao</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reviewDao</t>
-    <phoneticPr fontId="1"/>
+    <t>ReviewDao</t>
   </si>
   <si>
     <t>review関連のデータアクセス用Dao</t>
@@ -776,10 +776,6 @@
   <si>
     <t>他ユーザの投稿一覧画面用css</t>
   </si>
-  <si>
-    <t>樫森</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -788,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="@&quot;.java&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,7 +831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -966,13 +962,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,11 +1065,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1063,7 +1109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1359,24 +1405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G90"/>
+  <dimension ref="B2:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6780" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="57.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1392,1840 +1438,1940 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B53" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="C18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B19" s="13">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="C30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="C38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="C39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="C40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="C41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="C44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="13">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="28"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="C46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="28"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="C48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="C49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="28"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="C50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="D51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="28"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="13">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="13">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="C53" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="13">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="13">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="28"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="4">
         <f t="shared" ref="B54:B89" si="1">ROW()-2</f>
         <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="28"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="28"/>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="28"/>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="28"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="28"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="28"/>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="28"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="28"/>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="28"/>
+    </row>
+    <row r="71" spans="2:8" ht="19.5" thickBot="1">
       <c r="B71" s="13">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="28"/>
+    </row>
+    <row r="72" spans="2:8" ht="19.5" thickTop="1">
       <c r="B72" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="28"/>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="28"/>
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="28"/>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="28"/>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="28"/>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="28"/>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="28"/>
+    </row>
+    <row r="81" spans="2:8">
       <c r="B81" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="28"/>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="28"/>
+    </row>
+    <row r="83" spans="2:8">
       <c r="B83" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="28"/>
+    </row>
+    <row r="84" spans="2:8">
       <c r="B84" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="28"/>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" s="28"/>
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="28"/>
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="28"/>
+    </row>
+    <row r="89" spans="2:8" ht="19.5" thickBot="1">
       <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+        <v>204</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="28"/>
+    </row>
+    <row r="90" spans="2:8" ht="19.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="H3:H89">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="編集中">
+      <formula>NOT(ISERROR(SEARCH("編集中",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H89" xr:uid="{D700105C-4F43-4EC2-8E42-E540B37BFB69}">
+      <formula1>"編集中,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3418,37 +3564,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
 </file>
--- a/doc/内部設計書/05_ファイル構成一覧表__Thrymr..xlsx
+++ b/doc/内部設計書/05_ファイル構成一覧表__Thrymr..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/tanaka-ryo-plusdojo2022_seplus2016_onmicrosoft_com/Documents/E-1共有ファイル/チーム作成物/03_内部設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{2D5A107C-E402-49FA-9027-A5C57B9445DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49CD533D-9432-4FC6-A848-1B08F07C8057}"/>
+  <xr:revisionPtr revIDLastSave="711" documentId="13_ncr:1_{2D5A107C-E402-49FA-9027-A5C57B9445DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CB4A559-933F-435B-B28F-28E2CC15F25B}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="28110" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="28635" yWindow="-2835" windowWidth="19305" windowHeight="7995" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="214">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -92,6 +92,9 @@
     <t>小嶋</t>
   </si>
   <si>
+    <t>完了</t>
+  </si>
+  <si>
     <t>regist_result.jsp</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
   </si>
   <si>
     <t>田中</t>
+  </si>
+  <si>
+    <t>編集中</t>
   </si>
   <si>
     <t>my_review_list.jsp</t>
@@ -226,8 +232,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー登録Servlet</t>
-    <phoneticPr fontId="1"/>
+    <t>ユーザー登録用</t>
   </si>
   <si>
     <t>RegistResultServlet.java</t>
@@ -245,14 +250,12 @@
   </si>
   <si>
     <t>LogoutServlet.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ログアウト画面用</t>
   </si>
   <si>
     <t>TopServlet.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>トップメニュー画面用</t>
@@ -266,7 +269,6 @@
   </si>
   <si>
     <t>MyReviewListServlet.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自分の投稿一覧画面用</t>
@@ -294,14 +296,12 @@
   </si>
   <si>
     <t>FavoriteUserListServlet.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>お気に入りユーザ一覧画面用</t>
   </si>
   <si>
     <t>FavoriteReviewListServlet.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>お気に入り投稿一覧画面用</t>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>他ユーザの投稿一覧画面用</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Idpw.java</t>
+  </si>
+  <si>
+    <t>ログイン用のデータを持つエンティティモデル</t>
   </si>
   <si>
     <t>model</t>
@@ -442,6 +454,15 @@
   </si>
   <si>
     <t>dao</t>
+  </si>
+  <si>
+    <t>IdpwDao</t>
+  </si>
+  <si>
+    <t>Idpw関連のデータアクセス用Dao</t>
+  </si>
+  <si>
+    <t>dao</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -498,8 +519,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_imageDao</t>
-    <phoneticPr fontId="1"/>
+    <t>Review_ImageDao</t>
   </si>
   <si>
     <t>review_image関連のデータアクセス用Dao</t>
@@ -647,7 +667,6 @@
   </si>
   <si>
     <t>common.css</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>全画面共通css</t>
@@ -831,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -980,19 +999,147 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,12 +1188,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1065,20 +1206,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,17 +1606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H90"/>
+  <dimension ref="B2:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6780" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="6" width="57.875" bestFit="1" customWidth="1"/>
@@ -1459,17 +1658,19 @@
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B53" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1479,19 +1680,21 @@
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1501,19 +1704,21 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1523,19 +1728,21 @@
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="F6" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1545,19 +1752,21 @@
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1567,19 +1776,21 @@
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="F8" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1589,19 +1800,21 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1611,19 +1824,21 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1633,19 +1848,21 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1655,19 +1872,21 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1677,19 +1896,21 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1699,19 +1920,21 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1721,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1743,19 +1966,21 @@
         <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
+      <c r="B17" s="1">
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1765,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
+      <c r="B18" s="1">
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1787,19 +2012,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B19" s="13">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1">
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -1809,1566 +2034,1643 @@
         <v>8</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="2:8" ht="19.5" thickTop="1">
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1">
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>50</v>
+      <c r="C35" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="28"/>
+        <v>85</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="13">
-        <f t="shared" si="0"/>
+      <c r="B36" s="43">
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="28"/>
+      <c r="C36" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>35</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="C37" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="D37" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="28"/>
+      <c r="H37" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="28"/>
+      <c r="C38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>37</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>86</v>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>86</v>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="28"/>
+        <v>110</v>
+      </c>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="13">
-        <f t="shared" si="0"/>
+      <c r="B45" s="1">
+        <f>ROW()-2</f>
         <v>43</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="28"/>
+      <c r="C45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="4">
-        <f t="shared" si="0"/>
+      <c r="B46" s="1">
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>110</v>
+      <c r="C46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>45</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="28"/>
+      <c r="C47" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>46</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="28"/>
+      <c r="C48" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>47</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H49" s="28"/>
+      <c r="C49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="37"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="1">
+        <f>ROW()-2</f>
+        <v>51</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="1">
+        <f>ROW()-2</f>
+        <v>52</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="13">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H53" s="28"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="4">
-        <f t="shared" ref="B54:B89" si="1">ROW()-2</f>
-        <v>52</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54" s="28"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>53</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>133</v>
+      <c r="C55" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="28"/>
+        <v>110</v>
+      </c>
+      <c r="H55" s="29"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>54</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="28"/>
+      <c r="C56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="29"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="28"/>
+      <c r="H57" s="29"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="H58" s="29"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="H59" s="29"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H60" s="29"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H61" s="29"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H62" s="29"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H66" s="29"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H67" s="29"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H69" s="29"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="3">
-        <f t="shared" si="1"/>
+      <c r="B70" s="1">
+        <f>ROW()-2</f>
         <v>68</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>163</v>
+      <c r="C70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B71" s="13">
-        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="1">
+        <f>ROW()-2</f>
         <v>69</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="2:8" ht="19.5" thickTop="1">
-      <c r="B72" s="4">
-        <f t="shared" si="1"/>
+      <c r="C71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="1">
+        <f>ROW()-2</f>
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>169</v>
+      <c r="C72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H72" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>71</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="28"/>
+      <c r="C73" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="29"/>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>72</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>174</v>
+      <c r="C74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="28"/>
+        <v>179</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="28"/>
+      <c r="H75" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>200</v>
+        <v>176</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H87" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>202</v>
+        <v>176</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="28"/>
-    </row>
-    <row r="89" spans="2:8" ht="19.5" thickBot="1">
+        <v>34</v>
+      </c>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G89" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H89" s="28"/>
-    </row>
-    <row r="90" spans="2:8" ht="19.5" thickTop="1"/>
+        <v>176</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="1">
+        <f>ROW()-2</f>
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="1">
+        <f>ROW()-2</f>
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H3:H89">
+  <conditionalFormatting sqref="H3:H91">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="編集中">
       <formula>NOT(ISERROR(SEARCH("編集中",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H89" xr:uid="{D700105C-4F43-4EC2-8E42-E540B37BFB69}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H91" xr:uid="{D700105C-4F43-4EC2-8E42-E540B37BFB69}">
       <formula1>"編集中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3378,15 +3680,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3557,6 +3850,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3564,11 +3866,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
